--- a/PE loop Sample 8/Sample A_monopolar/Unnormalized_Pmax_Sample_8A_5Hz.xlsx
+++ b/PE loop Sample 8/Sample A_monopolar/Unnormalized_Pmax_Sample_8A_5Hz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,55 +444,85 @@
           <t>Unnormalized P_max</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Electrode Locations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A11_monopolar_10V_5Hz.txt</t>
+          <t>A2_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.357425</v>
+        <v>11.791549</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A2_monopolar_10V_5Hz.txt</t>
+          <t>A3_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.791549</v>
+        <v>12.249402</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A3_monopolar_10V_5Hz.txt</t>
+          <t>A8_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.249402</v>
+        <v>13.90362</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A8</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A8_monopolar_10V_5Hz.txt</t>
+          <t>A9_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.90362</v>
+        <v>14.409132</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A9</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A9_monopolar_10V_5Hz.txt</t>
+          <t>A11_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.409132</v>
+        <v>15.357425</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -504,6 +534,11 @@
       <c r="B7" t="n">
         <v>15.318931</v>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B13</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -514,45 +549,70 @@
       <c r="B8" t="n">
         <v>16.223028</v>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B15</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C13_monopolar_10V_5Hz.txt</t>
+          <t>C1_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.740735</v>
+        <v>12.420078</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C1_monopolar_10V_5Hz.txt</t>
+          <t>C5_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.420078</v>
+        <v>13.673675</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C5</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C5_monopolar_10V_5Hz.txt</t>
+          <t>C9_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.673675</v>
+        <v>14.005252</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C9</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C9_monopolar_10V_5Hz.txt</t>
+          <t>C13_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.005252</v>
+        <v>15.740735</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C13</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -564,6 +624,11 @@
       <c r="B13" t="n">
         <v>11.907437</v>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -574,6 +639,11 @@
       <c r="B14" t="n">
         <v>12.600734</v>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -584,6 +654,11 @@
       <c r="B15" t="n">
         <v>12.038805</v>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -594,6 +669,11 @@
       <c r="B16" t="n">
         <v>13.582226</v>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -604,75 +684,115 @@
       <c r="B17" t="n">
         <v>16.455417</v>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F15</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>G11_monopolar_10V_5Hz.txt</t>
+          <t>G2_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.865178</v>
+        <v>14.734191</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>G13_monopolar_10V_5Hz.txt</t>
+          <t>G3_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.271095</v>
+        <v>15.02483</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>G15_monopolar_10V_5Hz.txt</t>
+          <t>G5_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.857464</v>
+        <v>14.980226</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>G2_monopolar_10V_5Hz.txt</t>
+          <t>G7_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14.734191</v>
+        <v>17.235274</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>G7</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G3_monopolar_10V_5Hz.txt</t>
+          <t>G11_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.02483</v>
+        <v>15.865178</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>G11</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G5_monopolar_10V_5Hz.txt</t>
+          <t>G13_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.980226</v>
+        <v>16.271095</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>G13</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>G7_monopolar_10V_5Hz.txt</t>
+          <t>G15_monopolar_10V_5Hz.txt</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.235274</v>
+        <v>16.857464</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>G15</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -684,6 +804,11 @@
       <c r="B25" t="n">
         <v>16.28861</v>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>H9</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -694,6 +819,11 @@
       <c r="B26" t="n">
         <v>15.39266</v>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>I1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -704,6 +834,11 @@
       <c r="B27" t="n">
         <v>16.047463</v>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>I3</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -714,6 +849,11 @@
       <c r="B28" t="n">
         <v>17.126921</v>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>I8</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -724,6 +864,11 @@
       <c r="B29" t="n">
         <v>19.048152</v>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -734,6 +879,11 @@
       <c r="B30" t="n">
         <v>21.439864</v>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>K3</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -744,6 +894,11 @@
       <c r="B31" t="n">
         <v>24.547804</v>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>K9</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -754,6 +909,11 @@
       <c r="B32" t="n">
         <v>21.981426</v>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -763,6 +923,11 @@
       </c>
       <c r="B33" t="n">
         <v>25.415788</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
       </c>
     </row>
   </sheetData>
